--- a/DiemChuan.xlsx
+++ b/DiemChuan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A76C566-FC43-435E-BA65-AB01CC6BFB2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE39BE7A-B23B-4F3C-AA40-F8F482A93C11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,149 +20,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t>Mục b: 15 điểm</t>
-  </si>
-  <si>
-    <t>Phần b1: 02 điểm</t>
-  </si>
-  <si>
-    <t>Phần b2: 05,5 điểm</t>
-  </si>
-  <si>
-    <t>Phần b3: 3,5 điểm</t>
-  </si>
-  <si>
-    <t>Phần b4: 05 điểm</t>
-  </si>
-  <si>
-    <t>Mục C: 26,4 điểm</t>
-  </si>
-  <si>
-    <t>Phần C1: 05 điểm</t>
-  </si>
-  <si>
-    <t>Phần C2: 5,7 điểm</t>
-  </si>
-  <si>
-    <t>Phần C3: 5,2 điểm</t>
-  </si>
-  <si>
-    <t>Phần C4: 4,5 điểm</t>
-  </si>
-  <si>
-    <t>Phần C5: 05 điểm</t>
-  </si>
-  <si>
-    <t>Phần C6: 01 điểm</t>
-  </si>
-  <si>
-    <t>Mục d: 18 điểm</t>
-  </si>
-  <si>
-    <t>Phần d1: 03 điểm</t>
-  </si>
-  <si>
-    <t>Phần a1: 03</t>
-  </si>
-  <si>
-    <t>Phần a2: 03</t>
-  </si>
-  <si>
-    <t>Phần a3: 03</t>
-  </si>
-  <si>
-    <t>Phần a4: 3,5</t>
-  </si>
-  <si>
-    <t>Phần a5: 03</t>
-  </si>
-  <si>
-    <t>Phần a6: 03</t>
-  </si>
-  <si>
-    <t>Phần a7: 11</t>
-  </si>
-  <si>
-    <t>Phần a8: 3,5</t>
-  </si>
-  <si>
-    <t>Phần d2.1: 0 điểm</t>
-  </si>
-  <si>
-    <t>Phần d2.2: 0 điểm</t>
-  </si>
-  <si>
-    <t>Phần d2.3: +06 điểm</t>
-  </si>
-  <si>
-    <t>Phần d2.4: 0 điểm</t>
-  </si>
-  <si>
-    <t>Phần d2.5: 0 điểm</t>
-  </si>
-  <si>
-    <t>Phần 3.2.1: +0,5 điểm</t>
-  </si>
-  <si>
-    <t>Phần 3.2.3: 0 điểm</t>
-  </si>
-  <si>
-    <t>Phần 3.3.2.1: +2 điểm</t>
-  </si>
-  <si>
-    <t>Phần 3.3.3: 0 điểm</t>
-  </si>
-  <si>
-    <t>Phần d2: 07 điểm</t>
-  </si>
-  <si>
-    <t>Tiêu chuẩn 2: 2 điểm</t>
-  </si>
-  <si>
-    <t>Mục 2.1: 1 điểm</t>
-  </si>
-  <si>
-    <t>Mục 2.2: 1 điểm</t>
-  </si>
-  <si>
-    <t>Tiêu chuẩn 3: 10 điểm</t>
-  </si>
-  <si>
-    <t>Mục 3.1: 2 điểm</t>
-  </si>
-  <si>
-    <t>Mục 3.2: 2 điểm</t>
-  </si>
-  <si>
-    <t>Mục 3.3: 06 điểm</t>
-  </si>
-  <si>
-    <t>Tiêu chuẩn 4: 3 điểm</t>
-  </si>
-  <si>
-    <t>Mục 4.1: 01 điểm</t>
-  </si>
-  <si>
-    <t>Mục 4.3: 1,5 điểm</t>
-  </si>
-  <si>
-    <t>Mục 4.2: 0,5 điểm</t>
-  </si>
-  <si>
-    <t>Tiêu chuẩn 1: 80 điểm</t>
-  </si>
-  <si>
-    <t>Mục a: 30 điểm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>Tiêu chuẩn 1</t>
+  </si>
+  <si>
+    <t>Mục a</t>
+  </si>
+  <si>
+    <t>Phần a1</t>
+  </si>
+  <si>
+    <t>Phần a2</t>
+  </si>
+  <si>
+    <t>Phần a3</t>
+  </si>
+  <si>
+    <t>Phần a4</t>
+  </si>
+  <si>
+    <t>Phần a5</t>
+  </si>
+  <si>
+    <t>Phần a6</t>
+  </si>
+  <si>
+    <t>Phần a7</t>
+  </si>
+  <si>
+    <t>Phần a8</t>
+  </si>
+  <si>
+    <t>Mục b</t>
+  </si>
+  <si>
+    <t>Phần b1</t>
+  </si>
+  <si>
+    <t>Phần b2</t>
+  </si>
+  <si>
+    <t>Phần b3</t>
+  </si>
+  <si>
+    <t>Phần b4</t>
+  </si>
+  <si>
+    <t>Mục C</t>
+  </si>
+  <si>
+    <t>Phần C1</t>
+  </si>
+  <si>
+    <t>Phần C2</t>
+  </si>
+  <si>
+    <t>Phần C3</t>
+  </si>
+  <si>
+    <t>Phần C4</t>
+  </si>
+  <si>
+    <t>Phần C5</t>
+  </si>
+  <si>
+    <t>Phần C6</t>
+  </si>
+  <si>
+    <t>Mục d</t>
+  </si>
+  <si>
+    <t>Phần d1</t>
+  </si>
+  <si>
+    <t>Phần d2</t>
+  </si>
+  <si>
+    <t>Tiêu chuẩn 2</t>
+  </si>
+  <si>
+    <t>Mục 2.1</t>
+  </si>
+  <si>
+    <t>Mục 2.2</t>
+  </si>
+  <si>
+    <t>Tiêu chuẩn 3</t>
+  </si>
+  <si>
+    <t>Mục 3.1</t>
+  </si>
+  <si>
+    <t>Mục 3.2</t>
+  </si>
+  <si>
+    <t>Mục 3.3</t>
+  </si>
+  <si>
+    <t>Tiêu chuẩn 4</t>
+  </si>
+  <si>
+    <t>Mục 4.1</t>
+  </si>
+  <si>
+    <t>Mục 4.2</t>
+  </si>
+  <si>
+    <t>Mục 4.3</t>
+  </si>
+  <si>
+    <t>Phần a9</t>
+  </si>
+  <si>
+    <t>Tiêu chuẩn 5</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -190,8 +189,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,240 +476,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A45"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="19" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="20" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="21" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="22" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="23" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="24" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="36" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
